--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2387.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2387.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.054125592759076</v>
+        <v>0.9441280961036682</v>
       </c>
       <c r="B1">
-        <v>2.322405486317765</v>
+        <v>1.952826738357544</v>
       </c>
       <c r="C1">
-        <v>7.459797686891922</v>
+        <v>4.278550624847412</v>
       </c>
       <c r="D1">
-        <v>1.824318098894296</v>
+        <v>3.295520067214966</v>
       </c>
       <c r="E1">
-        <v>1.011592356363167</v>
+        <v>1.443691492080688</v>
       </c>
     </row>
   </sheetData>
